--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>URL</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>off_nguyendan_to</t>
-  </si>
-  <si>
-    <t>https://motcua.omon.cantho.gov.vn/</t>
-  </si>
-  <si>
-    <t>admin_omon</t>
   </si>
   <si>
     <t>off_gioto_from</t>
@@ -86,9 +80,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-10491]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +110,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -212,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,9 +247,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -533,13 +534,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
     <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -577,22 +578,22 @@
         <v>9</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -612,53 +613,46 @@
         <v>45658</v>
       </c>
       <c r="F2" s="12">
-        <v>45698</v>
+        <v>45720</v>
       </c>
       <c r="G2" s="12">
-        <v>45702</v>
+        <v>45726</v>
       </c>
       <c r="H2" s="11">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="I2" s="11">
-        <v>45727</v>
+        <v>45788</v>
+      </c>
+      <c r="J2" s="11">
+        <v>45777</v>
+      </c>
+      <c r="K2" s="11">
+        <v>45778</v>
+      </c>
+      <c r="L2" s="13">
+        <v>45535</v>
+      </c>
+      <c r="M2" s="13">
+        <v>45538</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>45658</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45658</v>
-      </c>
-      <c r="F3" s="12">
-        <v>45698</v>
-      </c>
-      <c r="G3" s="12">
-        <v>45702</v>
-      </c>
-      <c r="H3" s="11">
-        <v>45726</v>
-      </c>
-      <c r="I3" s="11">
-        <v>45727</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>URL</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>off_2/9_to</t>
+  </si>
+  <si>
+    <t>admin_vinhtrinh</t>
+  </si>
+  <si>
+    <t>Unitech@</t>
   </si>
 </sst>
 </file>
@@ -535,12 +541,12 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="1" max="1" width="36.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -638,7 +644,15 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="12"/>
@@ -651,8 +665,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -38,12 +38,6 @@
     <t>ctict@123</t>
   </si>
   <si>
-    <t>https://motcua.vinhthanh.cantho.gov.vn/</t>
-  </si>
-  <si>
-    <t>admin_vinhthanh</t>
-  </si>
-  <si>
     <t>off_duonglich_from</t>
   </si>
   <si>
@@ -74,10 +68,16 @@
     <t>off_2/9_to</t>
   </si>
   <si>
-    <t>admin_vinhtrinh</t>
-  </si>
-  <si>
     <t>Unitech@</t>
+  </si>
+  <si>
+    <t>admin_chauvanliem</t>
+  </si>
+  <si>
+    <t>https://motcua.omon.cantho.gov.vn/</t>
+  </si>
+  <si>
+    <t>admin_longhung</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,6 +257,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -541,13 +544,13 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" customWidth="1"/>
@@ -572,45 +575,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3">
         <v>45658</v>
@@ -645,13 +648,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>URL</t>
   </si>
@@ -35,9 +35,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>ctict@123</t>
-  </si>
-  <si>
     <t>off_duonglich_from</t>
   </si>
   <si>
@@ -71,13 +68,13 @@
     <t>Unitech@</t>
   </si>
   <si>
-    <t>admin_chauvanliem</t>
-  </si>
-  <si>
-    <t>https://motcua.omon.cantho.gov.vn/</t>
-  </si>
-  <si>
-    <t>admin_longhung</t>
+    <t>https://motcua.vinhthanh.cantho.gov.vn/</t>
+  </si>
+  <si>
+    <t>admin_vinhtrinh</t>
+  </si>
+  <si>
+    <t>admin_vinhbinh</t>
   </si>
 </sst>
 </file>
@@ -544,7 +541,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,45 +572,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3">
         <v>45658</v>
@@ -648,13 +645,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>URL</t>
   </si>
@@ -65,16 +65,28 @@
     <t>off_2/9_to</t>
   </si>
   <si>
-    <t>Unitech@</t>
-  </si>
-  <si>
     <t>https://motcua.vinhthanh.cantho.gov.vn/</t>
   </si>
   <si>
-    <t>admin_vinhtrinh</t>
-  </si>
-  <si>
-    <t>admin_vinhbinh</t>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Huyện Vĩnh Thạnh</t>
+  </si>
+  <si>
+    <t>admin_vinhthanh</t>
+  </si>
+  <si>
+    <t>ctict@123</t>
+  </si>
+  <si>
+    <t>https://motcua.omon.cantho.gov.vn/</t>
+  </si>
+  <si>
+    <t>admin_omon</t>
+  </si>
+  <si>
+    <t>Quận Ô Môn</t>
   </si>
 </sst>
 </file>
@@ -538,134 +550,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45658</v>
+      <c r="C2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="3">
         <v>45658</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="3">
+        <v>45658</v>
+      </c>
+      <c r="G2" s="12">
         <v>45720</v>
       </c>
-      <c r="G2" s="12">
+      <c r="H2" s="12">
         <v>45726</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <v>45787</v>
       </c>
-      <c r="I2" s="11">
+      <c r="J2" s="11">
         <v>45788</v>
       </c>
-      <c r="J2" s="11">
+      <c r="K2" s="11">
         <v>45777</v>
       </c>
-      <c r="K2" s="11">
+      <c r="L2" s="11">
         <v>45778</v>
       </c>
-      <c r="L2" s="13">
+      <c r="M2" s="13">
         <v>45535</v>
       </c>
-      <c r="M2" s="13">
+      <c r="N2" s="13">
         <v>45538</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -35,36 +35,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>off_duonglich_from</t>
-  </si>
-  <si>
-    <t>off_duonglich_to</t>
-  </si>
-  <si>
-    <t>off_nguyendan_from</t>
-  </si>
-  <si>
-    <t>off_nguyendan_to</t>
-  </si>
-  <si>
-    <t>off_gioto_from</t>
-  </si>
-  <si>
-    <t>off_gioto_to</t>
-  </si>
-  <si>
-    <t>off_30/4_va_1/5_from</t>
-  </si>
-  <si>
-    <t>off_30/4_va_1/5_to</t>
-  </si>
-  <si>
-    <t>off_2/9_from</t>
-  </si>
-  <si>
-    <t>off_2/9_to</t>
-  </si>
-  <si>
     <t>https://motcua.vinhthanh.cantho.gov.vn/</t>
   </si>
   <si>
@@ -87,17 +57,46 @@
   </si>
   <si>
     <t>Quận Ô Môn</t>
+  </si>
+  <si>
+    <t>Nghỉ Giỗ tổ từ</t>
+  </si>
+  <si>
+    <t>Nghỉ Giổ tổ đến</t>
+  </si>
+  <si>
+    <t>Nghỉ 30/4 và 1/5 từ</t>
+  </si>
+  <si>
+    <t>Nghỉ 30/4 và 1/5 đến</t>
+  </si>
+  <si>
+    <t>Nghỉ 2/9 từ</t>
+  </si>
+  <si>
+    <t>Nghỉ 2/9 đến</t>
+  </si>
+  <si>
+    <t>Nghỉ Tết Dương lịch từ</t>
+  </si>
+  <si>
+    <t>Nghỉ Tết Dương lịch đến</t>
+  </si>
+  <si>
+    <t>Nghỉ Tết Nguyên đán từ</t>
+  </si>
+  <si>
+    <t>Nghỉ Tết Nguyên đán đến</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10491]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,30 +105,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.6"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFECECEC"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -225,49 +254,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -550,97 +580,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="36.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="25.81640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="11" customWidth="1"/>
+    <col min="10" max="11" width="17.54296875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.7265625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="M1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="E2" s="10">
         <v>45658</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="10">
         <v>45658</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>45720</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>45726</v>
       </c>
       <c r="I2" s="11">
@@ -655,36 +687,69 @@
       <c r="L2" s="11">
         <v>45778</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <v>45535</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>45538</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45336</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="6s49b4ZoWtjsmhbZQs0tuQZ7XMds75dVbBH75uf8+u+qVlSf/i9hpFtGKbOQABdgR9d6yJiTugvnBEA3V/4qfw==" saltValue="9CDmn+znBOTMJuoFl58lIg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -585,7 +585,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -707,9 +707,7 @@
       <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10">
-        <v>45336</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>URL</t>
   </si>
@@ -41,24 +41,6 @@
     <t>Đơn vị</t>
   </si>
   <si>
-    <t>Huyện Vĩnh Thạnh</t>
-  </si>
-  <si>
-    <t>admin_vinhthanh</t>
-  </si>
-  <si>
-    <t>ctict@123</t>
-  </si>
-  <si>
-    <t>https://motcua.omon.cantho.gov.vn/</t>
-  </si>
-  <si>
-    <t>admin_omon</t>
-  </si>
-  <si>
-    <t>Quận Ô Môn</t>
-  </si>
-  <si>
     <t>Nghỉ Giỗ tổ từ</t>
   </si>
   <si>
@@ -87,6 +69,18 @@
   </si>
   <si>
     <t>Nghỉ Tết Nguyên đán đến</t>
+  </si>
+  <si>
+    <t>admin_vinhtrinh</t>
+  </si>
+  <si>
+    <t>Xã Vĩnh Trinh</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Chuyển trạng thái hồ sơ</t>
   </si>
 </sst>
 </file>
@@ -96,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10491]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +155,16 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -298,6 +306,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,12 +592,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,19 +606,21 @@
     <col min="2" max="2" width="28.08984375" style="8" customWidth="1"/>
     <col min="3" max="3" width="26.1796875" style="8" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="24.36328125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="25.81640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="11" customWidth="1"/>
-    <col min="10" max="11" width="17.54296875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16" style="11" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" style="11" customWidth="1"/>
     <col min="12" max="12" width="17.7265625" style="11" customWidth="1"/>
     <col min="13" max="13" width="13.08984375" style="11" customWidth="1"/>
     <col min="14" max="14" width="14.26953125" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="8"/>
+    <col min="15" max="15" width="30.08984375" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,48 +634,51 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" s="10">
         <v>45658</v>
@@ -694,65 +711,66 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D12" s="9"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6s49b4ZoWtjsmhbZQs0tuQZ7XMds75dVbBH75uf8+u+qVlSf/i9hpFtGKbOQABdgR9d6yJiTugvnBEA3V/4qfw==" saltValue="9CDmn+znBOTMJuoFl58lIg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-  </hyperlinks>
+  <sheetProtection sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>URL</t>
   </si>
@@ -77,10 +77,22 @@
     <t>Xã Vĩnh Trinh</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>Chuyển trạng thái hồ sơ</t>
+  </si>
+  <si>
+    <t>Unitech@</t>
+  </si>
+  <si>
+    <t>Xã Vĩnh Bình</t>
+  </si>
+  <si>
+    <t>admin_vinhbinh</t>
+  </si>
+  <si>
+    <t>Xã Thạnh Mỹ</t>
+  </si>
+  <si>
+    <t>admin_thanhmy</t>
   </si>
 </sst>
 </file>
@@ -90,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10491]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +174,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -264,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -310,6 +328,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,10 +620,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,7 +646,7 @@
     <col min="16" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="50" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +690,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -678,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="10">
         <v>45658</v>
@@ -710,20 +736,43 @@
       <c r="N2" s="12">
         <v>45538</v>
       </c>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D3" s="9"/>
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="O3" s="13"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D4" s="9"/>
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="O4" s="13"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D5" s="9"/>
@@ -769,8 +818,13 @@
       <c r="D12" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My PC HOME\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\Work\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5F2592-DBA7-4546-8FED-E0E842C4047D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3800" windowHeight="2760"/>
+    <workbookView xWindow="6915" yWindow="4710" windowWidth="20460" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>URL</t>
   </si>
@@ -35,9 +45,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>https://motcua.vinhthanh.cantho.gov.vn/</t>
-  </si>
-  <si>
     <t>Đơn vị</t>
   </si>
   <si>
@@ -80,9 +87,6 @@
     <t>Chuyển trạng thái hồ sơ</t>
   </si>
   <si>
-    <t>Unitech@</t>
-  </si>
-  <si>
     <t>Xã Vĩnh Bình</t>
   </si>
   <si>
@@ -93,12 +97,15 @@
   </si>
   <si>
     <t>admin_thanhmy</t>
+  </si>
+  <si>
+    <t>https://motcuahuyen.cantho.gov.vn/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10491]dd/mm/yyyy;@"/>
   </numFmts>
@@ -182,7 +189,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +238,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -277,32 +290,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4F4F4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4F4F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4F4F4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4F4F4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -326,16 +354,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,41 +643,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.08984375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="11" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="11" customWidth="1"/>
     <col min="6" max="6" width="16" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="17.54296875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.7265625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="30.08984375" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="8"/>
+    <col min="7" max="7" width="15.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="50" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -660,51 +686,52 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>18</v>
+      <c r="D2" s="15" t="str">
+        <f>PROPER(RIGHT(C2,LEN(C2)-6))&amp;"@2025"</f>
+        <v>Vinhtrinh@2025</v>
       </c>
       <c r="E2" s="10">
         <v>45658</v>
@@ -736,95 +763,92 @@
       <c r="N2" s="12">
         <v>45538</v>
       </c>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="16" t="s">
         <v>18</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f t="shared" ref="D3:D5" si="0">PROPER(RIGHT(C3,LEN(C3)-6))&amp;"@2025"</f>
+        <v>Vinhbinh@2025</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Thanhmy@2025</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D5" s="9"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="15"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>